--- a/book2/2301/file/2301-resitev6.xlsx
+++ b/book2/2301/file/2301-resitev6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\rin2-dev\2301\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\rin2\book2\2301\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -61,70 +61,70 @@
     <t>Drnulja</t>
   </si>
   <si>
-    <t>0203952B00123</t>
-  </si>
-  <si>
     <t>Andraž</t>
   </si>
   <si>
     <t>Slamorezec</t>
   </si>
   <si>
-    <t>1308959B00124</t>
-  </si>
-  <si>
     <t>Pavla</t>
   </si>
   <si>
     <t>Zaropotaj</t>
   </si>
   <si>
-    <t>2203962B10234</t>
-  </si>
-  <si>
     <t>Jurček</t>
   </si>
   <si>
     <t>Griža</t>
   </si>
   <si>
-    <t>1809955B00218</t>
-  </si>
-  <si>
     <t>Bošte</t>
   </si>
   <si>
     <t>Krevs</t>
   </si>
   <si>
-    <t>2710963B00314</t>
-  </si>
-  <si>
     <t>Petra</t>
   </si>
   <si>
     <t>Strama</t>
   </si>
   <si>
-    <t>3107964B10278</t>
-  </si>
-  <si>
     <t>Marko</t>
   </si>
   <si>
     <t>Črmaž</t>
   </si>
   <si>
-    <t>2811000B00011</t>
-  </si>
-  <si>
     <t>Špela</t>
   </si>
   <si>
     <t>Kišovar</t>
   </si>
   <si>
-    <t>1402001B10456</t>
+    <t>0203952500137</t>
+  </si>
+  <si>
+    <t>1308959500124</t>
+  </si>
+  <si>
+    <t>2203962505231</t>
+  </si>
+  <si>
+    <t>1809955500218</t>
+  </si>
+  <si>
+    <t>2710963500313</t>
+  </si>
+  <si>
+    <t>3107964505276</t>
+  </si>
+  <si>
+    <t>2811000500017</t>
+  </si>
+  <si>
+    <t>1402001505453</t>
   </si>
 </sst>
 </file>
@@ -168,9 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -488,7 +489,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,8 +533,8 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D2" t="str">
         <f>MID(C2,1,2)</f>
@@ -552,19 +553,19 @@
         <v>1952-03-02</v>
       </c>
       <c r="H2" t="str">
-        <f>IF(MID(C2, 9, 1)= "0", "moški", "ženski")</f>
+        <f>IF(MID(C2, 10, 1)&gt;= "5", "ženski", "moški")</f>
         <v>moški</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D9" si="0">MID(C3,1,2)</f>
@@ -583,19 +584,19 @@
         <v>1959-08-13</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H9" si="4">IF(MID(C3, 9, 1)= "0", "moški", "ženski")</f>
+        <f t="shared" ref="H3:H9" si="4">IF(MID(C3, 10, 1)&gt;= "5", "ženski", "moški")</f>
         <v>moški</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -620,13 +621,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -651,13 +652,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -682,13 +683,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -713,13 +714,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -744,12 +745,12 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="str">
@@ -775,5 +776,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2:C9" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>